--- a/测试用例设计方法.xlsx
+++ b/测试用例设计方法.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-KQRCAUT\Desktop\软件测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9385A9-CC93-47A0-B38A-E40149C432BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB50C5A-7F61-46F0-81E9-C6B9751E747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="判定表法" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="等价类" sheetId="4" r:id="rId4"/>
+    <sheet name="因果判定表法" sheetId="5" r:id="rId5"/>
+    <sheet name="流程图" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="281">
   <si>
     <t>组合规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -869,6 +872,322 @@
     <t>1、区号：123
 2、前缀：012
 3、后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、明确需求：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、画判定表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、提取数据、编写用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、如果金额大于500元，又未过期，则发出批准单和提货单
+2、如果金额大于500元，但过期了，则不发批准单与提货单
+3、如果金额小于等于500元，则不论是否过期都发出批准单和提货单
+4、在过期的情况下不论金额大小还需要发出通知单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否大于500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_002</t>
+  </si>
+  <si>
+    <t>order_003</t>
+  </si>
+  <si>
+    <t>发通知单(大于500且过期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开订单验证程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入金额
+2、输入是否过期
+3、点击验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额：600
+是否过期：过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发通知单，不发：批准单，提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不发通知单(未过期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过期：过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只发批准单和提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发批准单、提货单、通知单(不大于500且过期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过期：未过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发批准单、提货单、通知单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入的第一列字符必须是A或B
+2、第二列字符必须是一个数字
+3、如果第一列字符不正确，则给出信息L
+4、如果第二列字符不正确，给出信息M
+5、如果两列字符输入正确，则修改文件成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一列是否是A或B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二列是否是一个数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM_002</t>
+  </si>
+  <si>
+    <t>ATM_003</t>
+  </si>
+  <si>
+    <t>ATM_004</t>
+  </si>
+  <si>
+    <t>ATM_005</t>
+  </si>
+  <si>
+    <t>ATM_006</t>
+  </si>
+  <si>
+    <t>取款失败(非银行卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开ATM验证程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、插入卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡：会员卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败(非银行卡、退卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败(密码错误三次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、插入卡
+2、输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡：银行卡
+密码：正确密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡：银行卡
+密码：错误密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败(密码错误达3次、吞卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败(账户余额不足)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开ATM验证程序
+2、卡余额为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败，提示余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败(取款金额不正确)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败(ATM余额不足)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开ATM验证程序
+2、卡余额为1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡：银行卡
+密码：正确密码
+金额：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、插入卡
+2、输入密码
+3、输入取款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开ATM验证程序
+2、ATM余额为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡：银行卡
+密码：正确密码
+金额：1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>取款失败，提示输入金额不正确（只能取100或100的倍数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开ATM验证程序
+2、ATM余额10万
+3、卡余额5万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款失败，提示ATM机故障！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款成功，打印凭证，提示退卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +1195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,8 +1243,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +1279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,6 +1496,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,19 +1532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1194,18 +1542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,15 +1561,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2079,26 +2429,26 @@
       <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -2805,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E781C5-4D68-4902-A294-0B23CBFEB5E2}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -2859,7 +3209,7 @@
       <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="1"/>
@@ -3030,23 +3380,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
@@ -3060,93 +3410,93 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="31" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="19" t="s">
         <v>165</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -3157,10 +3507,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="8" t="s">
         <v>156</v>
       </c>
@@ -3175,10 +3525,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="8" t="s">
         <v>157</v>
       </c>
@@ -3193,10 +3543,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="31" t="s">
         <v>128</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -3213,10 +3563,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="8" t="s">
         <v>160</v>
       </c>
@@ -3231,10 +3581,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="8" t="s">
         <v>160</v>
       </c>
@@ -3249,10 +3599,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="31" t="s">
         <v>149</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3269,28 +3619,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="8" t="s">
         <v>162</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="8" t="s">
         <v>67</v>
       </c>
@@ -3346,7 +3696,7 @@
       <c r="F30" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H30" s="14" t="s">
@@ -3372,7 +3722,7 @@
       <c r="F31" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H31" s="14" t="s">
@@ -3398,7 +3748,7 @@
       <c r="F32" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H32" s="14" t="s">
@@ -3424,7 +3774,7 @@
       <c r="F33" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H33" s="14" t="s">
@@ -3441,7 +3791,7 @@
       <c r="C34" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="19" t="s">
         <v>194</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -3450,7 +3800,7 @@
       <c r="F34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H34" s="14" t="s">
@@ -3476,7 +3826,7 @@
       <c r="F35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H35" s="14" t="s">
@@ -3502,7 +3852,7 @@
       <c r="F36" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H36" s="14" t="s">
@@ -3528,7 +3878,7 @@
       <c r="F37" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H37" s="14" t="s">
@@ -3554,7 +3904,7 @@
       <c r="F38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H38" s="14" t="s">
@@ -3580,7 +3930,7 @@
       <c r="F39" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="19" t="s">
         <v>183</v>
       </c>
       <c r="H39" s="14" t="s">
@@ -3606,4 +3956,622 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBB096A-1572-4A49-A2D1-0DF6015D7592}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="43"/>
+      <c r="C8" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="43"/>
+      <c r="C30" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="43"/>
+      <c r="C31" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C21:E25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C1:I4"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A637852-C80A-44B8-A880-D69BE7ADDA0A}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>